--- a/modules_schedules/Y3_B2526_GIT_&_Liver_schedule.xlsx
+++ b/modules_schedules/Y3_B2526_GIT_&_Liver_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53455A25-0F3E-4AA8-B7E3-69E007CF1791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E968B10-7BA7-4D79-B706-8F26EF09BC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="60">
   <si>
     <t>Year</t>
   </si>
@@ -685,8 +685,8 @@
       <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
+      <c r="E4" s="3">
+        <v>45945</v>
       </c>
       <c r="F4" s="4">
         <v>0.58333333333333337</v>
@@ -896,7 +896,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="G13" s="9">
         <v>120</v>
@@ -1241,7 +1241,7 @@
         <v>20</v>
       </c>
       <c r="F28" s="4">
-        <v>8.3333333333333329E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G28" s="5">
         <v>120</v>
@@ -2640,8 +2640,8 @@
       <c r="D89" s="6">
         <v>1</v>
       </c>
-      <c r="E89" s="7" t="s">
-        <v>22</v>
+      <c r="E89" s="7">
+        <v>45938</v>
       </c>
       <c r="F89" s="8">
         <v>0.5</v>
@@ -2663,11 +2663,11 @@
       <c r="D90" s="2">
         <v>2</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" s="4">
-        <v>0.5</v>
+      <c r="E90" s="3">
+        <v>45958</v>
+      </c>
+      <c r="F90" s="8">
+        <v>0.41666666666666669</v>
       </c>
       <c r="G90" s="5">
         <v>120</v>
@@ -2686,11 +2686,11 @@
       <c r="D91" s="6">
         <v>1</v>
       </c>
-      <c r="E91" s="7" t="s">
-        <v>45</v>
+      <c r="E91" s="7">
+        <v>45929</v>
       </c>
       <c r="F91" s="8">
-        <v>0.41666666666666669</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G91" s="9">
         <v>75</v>
@@ -3380,7 +3380,7 @@
         <v>53</v>
       </c>
       <c r="F121" s="8">
-        <v>8.3333333333333329E-2</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G121" s="9">
         <v>120</v>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F137" s="8">
         <v>0.58333333333333337</v>
@@ -4641,11 +4641,11 @@
       <c r="D176" s="2">
         <v>1</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>16</v>
+      <c r="E176" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="F176" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G176" s="5">
         <v>75</v>
@@ -4848,11 +4848,11 @@
       <c r="D185" s="6">
         <v>2</v>
       </c>
-      <c r="E185" s="7" t="s">
-        <v>39</v>
+      <c r="E185" s="7">
+        <v>45943</v>
       </c>
       <c r="F185" s="8">
-        <v>0.45833333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="G185" s="9">
         <v>75</v>
@@ -4905,6 +4905,12 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G187">
+    <sortCondition ref="B2:B187"/>
+    <sortCondition ref="C2:C187"/>
+    <sortCondition ref="D2:D187"/>
+    <sortCondition ref="E2:E187"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/modules_schedules/Y3_B2526_GIT_&_Liver_schedule.xlsx
+++ b/modules_schedules/Y3_B2526_GIT_&_Liver_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E968B10-7BA7-4D79-B706-8F26EF09BC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9817FF4C-DF7A-448C-962B-A37DA1E9AFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1690" yWindow="570" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GIT_&amp;_Liver" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>03/11/2025</t>
   </si>
   <si>
-    <t>biochemistry lab</t>
-  </si>
-  <si>
     <t>29/10/2025</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>02/11/2025</t>
   </si>
   <si>
-    <t>parasitology sgd</t>
-  </si>
-  <si>
     <t>28/10/2025</t>
   </si>
   <si>
@@ -200,6 +194,12 @@
   </si>
   <si>
     <t>19/10/2025</t>
+  </si>
+  <si>
+    <t>Biochemistry Lab/CBL</t>
+  </si>
+  <si>
+    <t>Parasitology SGD/POS</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -749,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -772,13 +772,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="F8" s="4">
         <v>0.58333333333333337</v>
@@ -795,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
@@ -841,13 +841,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="6">
         <v>3</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="8">
         <v>0.58333333333333337</v>
@@ -864,13 +864,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F12" s="4">
         <v>0.33333333333333331</v>
@@ -887,13 +887,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8">
         <v>0.5</v>
@@ -910,13 +910,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F14" s="4">
         <v>0.5</v>
@@ -933,13 +933,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="8">
         <v>0.41666666666666669</v>
@@ -956,13 +956,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="4">
         <v>0.41666666666666669</v>
@@ -979,16 +979,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6">
         <v>4</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="G17" s="9">
         <v>120</v>
@@ -1002,13 +1002,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="4">
         <v>0.41666666666666669</v>
@@ -1025,7 +1025,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="6">
         <v>6</v>
@@ -1048,13 +1048,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
         <v>7</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="4">
         <v>0.41666666666666669</v>
@@ -1071,13 +1071,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="8">
         <v>0.41666666666666669</v>
@@ -1094,13 +1094,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="F22" s="4">
         <v>0.41666666666666669</v>
@@ -1117,13 +1117,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" s="8">
         <v>0.58333333333333337</v>
@@ -1140,13 +1140,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>2</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F24" s="4">
         <v>0.33333333333333331</v>
@@ -1163,13 +1163,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F25" s="8">
         <v>0.5</v>
@@ -1186,13 +1186,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="4">
         <v>0.41666666666666669</v>
@@ -1209,13 +1209,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="8">
         <v>0.58333333333333337</v>
@@ -1232,13 +1232,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F28" s="4">
         <v>0.58333333333333337</v>
@@ -1255,16 +1255,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="9">
         <v>75</v>
@@ -1278,13 +1278,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="F30" s="4">
         <v>0.33333333333333331</v>
@@ -1301,13 +1301,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31" s="6">
         <v>3</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31" s="8">
         <v>0.5</v>
@@ -1324,13 +1324,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="4">
         <v>0.33333333333333331</v>
@@ -1344,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>9</v>
@@ -1356,7 +1356,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G33" s="9">
         <v>120</v>
@@ -1367,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1379,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G34" s="5">
         <v>120</v>
@@ -1390,7 +1390,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>9</v>
@@ -1402,7 +1402,7 @@
         <v>12</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G35" s="9">
         <v>120</v>
@@ -1413,7 +1413,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1425,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G36" s="5">
         <v>120</v>
@@ -1436,7 +1436,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>9</v>
@@ -1448,7 +1448,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G37" s="9">
         <v>120</v>
@@ -1459,19 +1459,19 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G38" s="5">
         <v>120</v>
@@ -1482,19 +1482,19 @@
         <v>7</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G39" s="9">
         <v>120</v>
@@ -1505,10 +1505,10 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -1517,7 +1517,7 @@
         <v>10</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G40" s="5">
         <v>120</v>
@@ -1528,19 +1528,19 @@
         <v>7</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="G41" s="9">
         <v>120</v>
@@ -1551,19 +1551,19 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2">
         <v>3</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G42" s="5">
         <v>120</v>
@@ -1574,19 +1574,19 @@
         <v>7</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="F43" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G43" s="9">
         <v>120</v>
@@ -1597,19 +1597,19 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2">
         <v>2</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G44" s="5">
         <v>120</v>
@@ -1620,19 +1620,19 @@
         <v>7</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="G45" s="9">
         <v>120</v>
@@ -1643,19 +1643,19 @@
         <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="2">
-        <v>2</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="G46" s="5">
         <v>120</v>
@@ -1666,19 +1666,19 @@
         <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D47" s="6">
         <v>3</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47" s="9">
         <v>120</v>
@@ -1689,19 +1689,19 @@
         <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2">
         <v>4</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="G48" s="5">
         <v>120</v>
@@ -1712,19 +1712,19 @@
         <v>7</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" s="6">
         <v>5</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G49" s="9">
         <v>120</v>
@@ -1735,10 +1735,10 @@
         <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D50" s="2">
         <v>6</v>
@@ -1747,7 +1747,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G50" s="5">
         <v>120</v>
@@ -1758,19 +1758,19 @@
         <v>7</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D51" s="6">
         <v>7</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" s="9">
         <v>120</v>
@@ -1781,19 +1781,19 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="G52" s="5">
         <v>75</v>
@@ -1804,10 +1804,10 @@
         <v>7</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
@@ -1816,7 +1816,7 @@
         <v>14</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G53" s="9">
         <v>120</v>
@@ -1827,19 +1827,19 @@
         <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G54" s="5">
         <v>120</v>
@@ -1850,19 +1850,19 @@
         <v>7</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D55" s="6">
         <v>2</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G55" s="9">
         <v>120</v>
@@ -1873,19 +1873,19 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="G56" s="5">
         <v>120</v>
@@ -1896,19 +1896,19 @@
         <v>7</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D57" s="6">
         <v>2</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G57" s="9">
         <v>120</v>
@@ -1919,19 +1919,19 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G58" s="5">
         <v>120</v>
@@ -1942,19 +1942,19 @@
         <v>7</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D59" s="6">
         <v>2</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G59" s="9">
         <v>120</v>
@@ -1965,16 +1965,16 @@
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D60" s="2">
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F60" s="4">
         <v>0.54166666666666663</v>
@@ -1988,16 +1988,16 @@
         <v>7</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C61" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="6">
+        <v>2</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D61" s="6">
-        <v>2</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="F61" s="8">
         <v>0.45833333333333331</v>
@@ -2011,16 +2011,16 @@
         <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D62" s="2">
         <v>3</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F62" s="4">
         <v>0.54166666666666663</v>
@@ -2034,19 +2034,19 @@
         <v>7</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D63" s="6">
         <v>4</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G63" s="9">
         <v>120</v>
@@ -2057,7 +2057,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F64" s="4">
         <v>0.58333333333333337</v>
@@ -2080,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>9</v>
@@ -2089,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F65" s="8">
         <v>0.33333333333333331</v>
@@ -2103,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -2112,7 +2112,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F66" s="4">
         <v>0.5</v>
@@ -2126,7 +2126,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>9</v>
@@ -2135,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F67" s="8">
         <v>0.33333333333333331</v>
@@ -2149,7 +2149,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -2158,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F68" s="4">
         <v>0.33333333333333331</v>
@@ -2172,16 +2172,16 @@
         <v>7</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D69" s="6">
         <v>1</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F69" s="8">
         <v>0.33333333333333331</v>
@@ -2195,16 +2195,16 @@
         <v>7</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D70" s="2">
-        <v>2</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="F70" s="4">
         <v>0.5</v>
@@ -2218,16 +2218,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F71" s="8">
         <v>0.33333333333333331</v>
@@ -2241,10 +2241,10 @@
         <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2">
         <v>2</v>
@@ -2264,16 +2264,16 @@
         <v>7</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73" s="6">
         <v>3</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F73" s="8">
         <v>0.5</v>
@@ -2287,16 +2287,16 @@
         <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D74" s="2">
         <v>1</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F74" s="4">
         <v>0.58333333333333337</v>
@@ -2310,16 +2310,16 @@
         <v>7</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D75" s="6">
         <v>2</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F75" s="8">
         <v>0.33333333333333331</v>
@@ -2333,16 +2333,16 @@
         <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" s="2">
         <v>1</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F76" s="4">
         <v>0.33333333333333331</v>
@@ -2356,16 +2356,16 @@
         <v>7</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D77" s="6">
         <v>2</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F77" s="8">
         <v>0.41666666666666669</v>
@@ -2379,16 +2379,16 @@
         <v>7</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78" s="2">
         <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F78" s="4">
         <v>0.41666666666666669</v>
@@ -2402,16 +2402,16 @@
         <v>7</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D79" s="6">
         <v>4</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F79" s="8">
         <v>0.58333333333333337</v>
@@ -2425,16 +2425,16 @@
         <v>7</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D80" s="2">
         <v>5</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F80" s="4">
         <v>0.33333333333333331</v>
@@ -2448,16 +2448,16 @@
         <v>7</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81" s="6">
         <v>6</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F81" s="8">
         <v>0.58333333333333337</v>
@@ -2471,16 +2471,16 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D82" s="2">
         <v>7</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F82" s="4">
         <v>0.33333333333333331</v>
@@ -2494,16 +2494,16 @@
         <v>7</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F83" s="8">
         <v>0.375</v>
@@ -2517,16 +2517,16 @@
         <v>7</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F84" s="4">
         <v>0.41666666666666669</v>
@@ -2540,16 +2540,16 @@
         <v>7</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D85" s="6">
         <v>1</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F85" s="8">
         <v>0.33333333333333331</v>
@@ -2563,10 +2563,10 @@
         <v>7</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
         <v>2</v>
@@ -2586,16 +2586,16 @@
         <v>7</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F87" s="8">
         <v>0.41666666666666669</v>
@@ -2609,10 +2609,10 @@
         <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>2</v>
@@ -2632,10 +2632,10 @@
         <v>7</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D89" s="6">
         <v>1</v>
@@ -2655,10 +2655,10 @@
         <v>7</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>2</v>
@@ -2678,10 +2678,10 @@
         <v>7</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D91" s="6">
         <v>1</v>
@@ -2701,16 +2701,16 @@
         <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D92" s="2">
-        <v>2</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="F92" s="4">
         <v>0.375</v>
@@ -2724,16 +2724,16 @@
         <v>7</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D93" s="6">
         <v>3</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F93" s="8">
         <v>0.58333333333333337</v>
@@ -2747,16 +2747,16 @@
         <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D94" s="2">
         <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F94" s="4">
         <v>0.375</v>
@@ -2770,7 +2770,7 @@
         <v>7</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>9</v>
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F95" s="8">
         <v>0.5</v>
@@ -2793,7 +2793,7 @@
         <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2802,7 +2802,7 @@
         <v>2</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F96" s="4">
         <v>0.41666666666666669</v>
@@ -2816,7 +2816,7 @@
         <v>7</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>9</v>
@@ -2825,7 +2825,7 @@
         <v>3</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F97" s="8">
         <v>0.41666666666666669</v>
@@ -2839,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2848,7 +2848,7 @@
         <v>4</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F98" s="4">
         <v>0.5</v>
@@ -2862,7 +2862,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>9</v>
@@ -2871,7 +2871,7 @@
         <v>5</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F99" s="8">
         <v>0.58333333333333337</v>
@@ -2885,10 +2885,10 @@
         <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D100" s="2">
         <v>1</v>
@@ -2908,16 +2908,16 @@
         <v>7</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D101" s="6">
         <v>2</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F101" s="8">
         <v>0.41666666666666669</v>
@@ -2931,16 +2931,16 @@
         <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D102" s="2">
         <v>1</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F102" s="4">
         <v>0.58333333333333337</v>
@@ -2954,16 +2954,16 @@
         <v>7</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D103" s="6">
         <v>2</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F103" s="8">
         <v>0.5</v>
@@ -2977,10 +2977,10 @@
         <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D104" s="2">
         <v>3</v>
@@ -3000,16 +3000,16 @@
         <v>7</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C105" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="6">
+        <v>1</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D105" s="6">
-        <v>1</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="F105" s="8">
         <v>0.58333333333333337</v>
@@ -3023,16 +3023,16 @@
         <v>7</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D106" s="2">
         <v>2</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F106" s="4">
         <v>0.41666666666666669</v>
@@ -3046,16 +3046,16 @@
         <v>7</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C107" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="6">
+        <v>1</v>
+      </c>
+      <c r="E107" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D107" s="6">
-        <v>1</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F107" s="8">
         <v>0.5</v>
@@ -3069,16 +3069,16 @@
         <v>7</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D108" s="2">
         <v>2</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F108" s="4">
         <v>0.33333333333333331</v>
@@ -3092,16 +3092,16 @@
         <v>7</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D109" s="6">
         <v>3</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F109" s="8">
         <v>0.33333333333333331</v>
@@ -3115,16 +3115,16 @@
         <v>7</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D110" s="2">
         <v>4</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F110" s="4">
         <v>0.58333333333333337</v>
@@ -3138,16 +3138,16 @@
         <v>7</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D111" s="6">
         <v>5</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F111" s="8">
         <v>0.5</v>
@@ -3161,16 +3161,16 @@
         <v>7</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D112" s="2">
         <v>6</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F112" s="4">
         <v>0.5</v>
@@ -3184,16 +3184,16 @@
         <v>7</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D113" s="6">
         <v>7</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F113" s="8">
         <v>0.5</v>
@@ -3207,16 +3207,16 @@
         <v>7</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D114" s="2">
         <v>1</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F114" s="4">
         <v>0.625</v>
@@ -3230,16 +3230,16 @@
         <v>7</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C115" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" s="6">
+        <v>2</v>
+      </c>
+      <c r="E115" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D115" s="6">
-        <v>2</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F115" s="8">
         <v>0.33333333333333331</v>
@@ -3253,16 +3253,16 @@
         <v>7</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2">
         <v>1</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F116" s="4">
         <v>0.33333333333333331</v>
@@ -3276,16 +3276,16 @@
         <v>7</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D117" s="6">
         <v>2</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F117" s="8">
         <v>0.33333333333333331</v>
@@ -3299,16 +3299,16 @@
         <v>7</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>1</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F118" s="4">
         <v>0.41666666666666669</v>
@@ -3322,16 +3322,16 @@
         <v>7</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D119" s="6">
         <v>2</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F119" s="8">
         <v>0.41666666666666669</v>
@@ -3345,16 +3345,16 @@
         <v>7</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>1</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F120" s="4">
         <v>0.41666666666666669</v>
@@ -3368,16 +3368,16 @@
         <v>7</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D121" s="6">
         <v>2</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F121" s="8">
         <v>0.58333333333333337</v>
@@ -3391,16 +3391,16 @@
         <v>7</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D122" s="2">
         <v>1</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F122" s="4">
         <v>0.33333333333333331</v>
@@ -3414,16 +3414,16 @@
         <v>7</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C123" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" s="6">
+        <v>2</v>
+      </c>
+      <c r="E123" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D123" s="6">
-        <v>2</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="F123" s="8">
         <v>0.41666666666666669</v>
@@ -3437,16 +3437,16 @@
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D124" s="2">
         <v>3</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F124" s="4">
         <v>0.58333333333333337</v>
@@ -3460,10 +3460,10 @@
         <v>7</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D125" s="6">
         <v>4</v>
@@ -3483,7 +3483,7 @@
         <v>7</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F126" s="4">
         <v>0.58333333333333337</v>
@@ -3506,7 +3506,7 @@
         <v>7</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>9</v>
@@ -3515,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F127" s="8">
         <v>0.33333333333333331</v>
@@ -3529,7 +3529,7 @@
         <v>7</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3538,7 +3538,7 @@
         <v>3</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F128" s="4">
         <v>0.33333333333333331</v>
@@ -3552,7 +3552,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>9</v>
@@ -3561,7 +3561,7 @@
         <v>4</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F129" s="8">
         <v>0.58333333333333337</v>
@@ -3575,7 +3575,7 @@
         <v>7</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3584,7 +3584,7 @@
         <v>5</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F130" s="4">
         <v>0.5</v>
@@ -3598,16 +3598,16 @@
         <v>7</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D131" s="6">
         <v>1</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F131" s="8">
         <v>0.5</v>
@@ -3621,16 +3621,16 @@
         <v>7</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D132" s="2">
         <v>2</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F132" s="4">
         <v>0.33333333333333331</v>
@@ -3644,16 +3644,16 @@
         <v>7</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D133" s="6">
         <v>1</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F133" s="8">
         <v>0.5</v>
@@ -3667,16 +3667,16 @@
         <v>7</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D134" s="2">
         <v>2</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F134" s="4">
         <v>0.5</v>
@@ -3690,16 +3690,16 @@
         <v>7</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D135" s="6">
         <v>3</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F135" s="8">
         <v>0.33333333333333331</v>
@@ -3713,16 +3713,16 @@
         <v>7</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
+      <c r="E136" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D136" s="2">
-        <v>1</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F136" s="4">
         <v>0.5</v>
@@ -3736,16 +3736,16 @@
         <v>7</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D137" s="6">
         <v>2</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F137" s="8">
         <v>0.58333333333333337</v>
@@ -3759,16 +3759,16 @@
         <v>7</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D138" s="2">
         <v>1</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F138" s="4">
         <v>0.41666666666666669</v>
@@ -3782,16 +3782,16 @@
         <v>7</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D139" s="6">
         <v>2</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F139" s="8">
         <v>0.58333333333333337</v>
@@ -3805,16 +3805,16 @@
         <v>7</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D140" s="2">
         <v>3</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F140" s="4">
         <v>0.5</v>
@@ -3828,10 +3828,10 @@
         <v>7</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D141" s="6">
         <v>4</v>
@@ -3851,16 +3851,16 @@
         <v>7</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D142" s="2">
         <v>5</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F142" s="4">
         <v>0.58333333333333337</v>
@@ -3874,16 +3874,16 @@
         <v>7</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D143" s="6">
         <v>6</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F143" s="8">
         <v>0.58333333333333337</v>
@@ -3897,16 +3897,16 @@
         <v>7</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D144" s="2">
         <v>7</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F144" s="4">
         <v>0.41666666666666669</v>
@@ -3920,16 +3920,16 @@
         <v>7</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D145" s="6">
         <v>1</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F145" s="8">
         <v>0.45833333333333331</v>
@@ -3943,16 +3943,16 @@
         <v>7</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D146" s="2">
         <v>2</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F146" s="4">
         <v>0.58333333333333337</v>
@@ -3966,16 +3966,16 @@
         <v>7</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D147" s="6">
         <v>1</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F147" s="8">
         <v>0.41666666666666669</v>
@@ -3989,16 +3989,16 @@
         <v>7</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D148" s="2">
         <v>2</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F148" s="4">
         <v>0.41666666666666669</v>
@@ -4012,16 +4012,16 @@
         <v>7</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D149" s="6">
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F149" s="8">
         <v>0.33333333333333331</v>
@@ -4035,16 +4035,16 @@
         <v>7</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2">
         <v>2</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F150" s="4">
         <v>0.33333333333333331</v>
@@ -4058,16 +4058,16 @@
         <v>7</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D151" s="6">
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F151" s="8">
         <v>0.5</v>
@@ -4081,16 +4081,16 @@
         <v>7</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>2</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F152" s="4">
         <v>0.5</v>
@@ -4104,16 +4104,16 @@
         <v>7</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D153" s="6">
         <v>1</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F153" s="8">
         <v>0.375</v>
@@ -4127,16 +4127,16 @@
         <v>7</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D154" s="2">
+        <v>2</v>
+      </c>
+      <c r="E154" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D154" s="2">
-        <v>2</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F154" s="4">
         <v>0.33333333333333331</v>
@@ -4150,16 +4150,16 @@
         <v>7</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D155" s="6">
         <v>3</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F155" s="8">
         <v>0.5</v>
@@ -4173,10 +4173,10 @@
         <v>7</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D156" s="2">
         <v>4</v>
@@ -4196,7 +4196,7 @@
         <v>7</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>9</v>
@@ -4205,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F157" s="8">
         <v>0.33333333333333331</v>
@@ -4219,7 +4219,7 @@
         <v>7</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4228,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F158" s="4">
         <v>0.41666666666666669</v>
@@ -4242,7 +4242,7 @@
         <v>7</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>9</v>
@@ -4265,7 +4265,7 @@
         <v>7</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4274,7 +4274,7 @@
         <v>4</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F160" s="4">
         <v>0.5</v>
@@ -4288,7 +4288,7 @@
         <v>7</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>9</v>
@@ -4297,7 +4297,7 @@
         <v>5</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F161" s="8">
         <v>0.41666666666666669</v>
@@ -4311,16 +4311,16 @@
         <v>7</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D162" s="2">
         <v>1</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F162" s="4">
         <v>0.41666666666666669</v>
@@ -4334,16 +4334,16 @@
         <v>7</v>
       </c>
       <c r="B163" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C163" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C163" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="D163" s="6">
         <v>2</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F163" s="8">
         <v>0.41666666666666669</v>
@@ -4357,16 +4357,16 @@
         <v>7</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D164" s="2">
         <v>1</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F164" s="4">
         <v>0.41666666666666669</v>
@@ -4380,16 +4380,16 @@
         <v>7</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D165" s="6">
         <v>2</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F165" s="8">
         <v>0.58333333333333337</v>
@@ -4403,16 +4403,16 @@
         <v>7</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D166" s="2">
         <v>3</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F166" s="4">
         <v>0.58333333333333337</v>
@@ -4426,16 +4426,16 @@
         <v>7</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D167" s="6">
         <v>1</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F167" s="8">
         <v>0.5</v>
@@ -4449,16 +4449,16 @@
         <v>7</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D168" s="2">
         <v>2</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F168" s="4">
         <v>0.41666666666666669</v>
@@ -4472,16 +4472,16 @@
         <v>7</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C169" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169" s="6">
+        <v>1</v>
+      </c>
+      <c r="E169" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D169" s="6">
-        <v>1</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F169" s="8">
         <v>0.58333333333333337</v>
@@ -4495,16 +4495,16 @@
         <v>7</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D170" s="2">
         <v>2</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F170" s="4">
         <v>0.5</v>
@@ -4518,16 +4518,16 @@
         <v>7</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D171" s="6">
         <v>3</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F171" s="8">
         <v>0.33333333333333331</v>
@@ -4541,16 +4541,16 @@
         <v>7</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D172" s="2">
         <v>4</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F172" s="4">
         <v>0.41666666666666669</v>
@@ -4564,16 +4564,16 @@
         <v>7</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D173" s="6">
         <v>5</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F173" s="8">
         <v>0.41666666666666669</v>
@@ -4587,16 +4587,16 @@
         <v>7</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D174" s="2">
         <v>6</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F174" s="4">
         <v>0.5</v>
@@ -4610,16 +4610,16 @@
         <v>7</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D175" s="6">
         <v>7</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F175" s="8">
         <v>0.33333333333333331</v>
@@ -4633,16 +4633,16 @@
         <v>7</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D176" s="2">
         <v>1</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F176" s="4">
         <v>0.33333333333333331</v>
@@ -4656,10 +4656,10 @@
         <v>7</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D177" s="6">
         <v>2</v>
@@ -4679,16 +4679,16 @@
         <v>7</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D178" s="2">
         <v>1</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F178" s="4">
         <v>0.58333333333333337</v>
@@ -4702,16 +4702,16 @@
         <v>7</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D179" s="6">
         <v>2</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F179" s="8">
         <v>0.33333333333333331</v>
@@ -4725,16 +4725,16 @@
         <v>7</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D180" s="2">
         <v>1</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F180" s="4">
         <v>0.5</v>
@@ -4748,16 +4748,16 @@
         <v>7</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D181" s="6">
         <v>2</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F181" s="8">
         <v>0.5</v>
@@ -4771,16 +4771,16 @@
         <v>7</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>1</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F182" s="4">
         <v>0.33333333333333331</v>
@@ -4794,16 +4794,16 @@
         <v>7</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D183" s="6">
         <v>2</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F183" s="8">
         <v>0.41666666666666669</v>
@@ -4817,10 +4817,10 @@
         <v>7</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D184" s="2">
         <v>1</v>
@@ -4840,10 +4840,10 @@
         <v>7</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D185" s="6">
         <v>2</v>
@@ -4863,16 +4863,16 @@
         <v>7</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D186" s="2">
         <v>3</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F186" s="4">
         <v>0.625</v>
@@ -4886,10 +4886,10 @@
         <v>7</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D187" s="6">
         <v>4</v>

--- a/modules_schedules/Y3_B2526_GIT_&_Liver_schedule.xlsx
+++ b/modules_schedules/Y3_B2526_GIT_&_Liver_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9817FF4C-DF7A-448C-962B-A37DA1E9AFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65395EA9-7F21-4E07-887A-5D9F2AB73EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1690" yWindow="570" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GIT_&amp;_Liver" sheetId="1" r:id="rId1"/>
@@ -219,10 +219,12 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -591,7 +593,7 @@
   <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1083,7 +1085,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G21" s="9">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1267,7 +1269,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="9">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1290,7 +1292,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G30" s="5">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1313,7 +1315,7 @@
         <v>0.5</v>
       </c>
       <c r="G31" s="9">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1335,8 +1337,8 @@
       <c r="F32" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G32" s="5">
-        <v>75</v>
+      <c r="G32" s="9">
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1796,7 +1798,7 @@
         <v>40</v>
       </c>
       <c r="G52" s="5">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -1980,7 +1982,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G60" s="5">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2003,7 +2005,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="G61" s="9">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2026,7 +2028,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G62" s="5">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2509,7 +2511,7 @@
         <v>0.375</v>
       </c>
       <c r="G83" s="9">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -2693,7 +2695,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G91" s="9">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -2716,7 +2718,7 @@
         <v>0.375</v>
       </c>
       <c r="G92" s="5">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -2739,7 +2741,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G93" s="9">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -3222,7 +3224,7 @@
         <v>0.625</v>
       </c>
       <c r="G114" s="5">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -3406,7 +3408,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G122" s="5">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -3429,7 +3431,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G123" s="9">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -3452,7 +3454,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G124" s="5">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -3935,7 +3937,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="G145" s="9">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -4119,7 +4121,7 @@
         <v>0.375</v>
       </c>
       <c r="G153" s="9">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -4142,7 +4144,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G154" s="5">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -4165,7 +4167,7 @@
         <v>0.5</v>
       </c>
       <c r="G155" s="9">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
@@ -4648,7 +4650,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G176" s="5">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
@@ -4832,7 +4834,7 @@
         <v>0.5</v>
       </c>
       <c r="G184" s="5">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
@@ -4855,7 +4857,7 @@
         <v>0.375</v>
       </c>
       <c r="G185" s="9">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
@@ -4878,7 +4880,7 @@
         <v>0.625</v>
       </c>
       <c r="G186" s="5">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">

--- a/modules_schedules/Y3_B2526_GIT_&_Liver_schedule.xlsx
+++ b/modules_schedules/Y3_B2526_GIT_&_Liver_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65395EA9-7F21-4E07-887A-5D9F2AB73EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0387B5D6-A268-4A54-BA21-92316B13216E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GIT_&amp;_Liver" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="59">
   <si>
     <t>Year</t>
   </si>
@@ -112,15 +112,9 @@
     <t>04/11/2025</t>
   </si>
   <si>
-    <t>pathology lab</t>
-  </si>
-  <si>
     <t>22/10/2025</t>
   </si>
   <si>
-    <t>pathology museum</t>
-  </si>
-  <si>
     <t>23/10/2025</t>
   </si>
   <si>
@@ -200,6 +194,9 @@
   </si>
   <si>
     <t>Parasitology SGD/POS</t>
+  </si>
+  <si>
+    <t>Pathology Lab/Museum</t>
   </si>
 </sst>
 </file>
@@ -592,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="155" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -751,7 +748,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -774,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -1073,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -1096,7 +1093,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -1119,13 +1116,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F23" s="8">
         <v>0.58333333333333337</v>
@@ -1135,48 +1132,48 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="C24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="4">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G24" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="G25" s="5">
         <v>120</v>
       </c>
     </row>
@@ -1187,11 +1184,11 @@
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>32</v>
+      <c r="C26" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="D26" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>17</v>
@@ -1211,7 +1208,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -1234,7 +1231,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>2</v>
@@ -1257,13 +1254,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>25</v>
@@ -1280,13 +1277,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="F30" s="4">
         <v>0.33333333333333331</v>
@@ -1303,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="6">
         <v>3</v>
@@ -1326,7 +1323,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -1346,7 +1343,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>9</v>
@@ -1358,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G33" s="9">
         <v>120</v>
@@ -1369,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1381,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G34" s="5">
         <v>120</v>
@@ -1392,7 +1389,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>9</v>
@@ -1404,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G35" s="9">
         <v>120</v>
@@ -1415,7 +1412,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1427,7 +1424,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G36" s="5">
         <v>120</v>
@@ -1438,7 +1435,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>9</v>
@@ -1461,10 +1458,10 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -1473,7 +1470,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G38" s="5">
         <v>120</v>
@@ -1484,10 +1481,10 @@
         <v>7</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D39" s="6">
         <v>2</v>
@@ -1496,7 +1493,7 @@
         <v>27</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G39" s="9">
         <v>120</v>
@@ -1507,7 +1504,7 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>16</v>
@@ -1519,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G40" s="5">
         <v>120</v>
@@ -1530,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>16</v>
@@ -1539,10 +1536,10 @@
         <v>2</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G41" s="9">
         <v>120</v>
@@ -1553,7 +1550,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>16</v>
@@ -1565,7 +1562,7 @@
         <v>27</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G42" s="5">
         <v>120</v>
@@ -1576,7 +1573,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>18</v>
@@ -1588,7 +1585,7 @@
         <v>19</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G43" s="9">
         <v>120</v>
@@ -1599,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>18</v>
@@ -1611,7 +1608,7 @@
         <v>17</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G44" s="5">
         <v>120</v>
@@ -1622,7 +1619,7 @@
         <v>7</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>20</v>
@@ -1634,7 +1631,7 @@
         <v>21</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G45" s="9">
         <v>120</v>
@@ -1645,7 +1642,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>20</v>
@@ -1654,10 +1651,10 @@
         <v>2</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G46" s="5">
         <v>120</v>
@@ -1668,7 +1665,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>20</v>
@@ -1677,7 +1674,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>25</v>
@@ -1691,7 +1688,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>20</v>
@@ -1714,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>20</v>
@@ -1723,10 +1720,10 @@
         <v>5</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G49" s="9">
         <v>120</v>
@@ -1737,7 +1734,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>20</v>
@@ -1749,7 +1746,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G50" s="5">
         <v>120</v>
@@ -1760,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>20</v>
@@ -1783,10 +1780,10 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -1795,7 +1792,7 @@
         <v>15</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G52" s="5">
         <v>90</v>
@@ -1806,10 +1803,10 @@
         <v>7</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
@@ -1818,7 +1815,7 @@
         <v>14</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G53" s="9">
         <v>120</v>
@@ -1829,67 +1826,67 @@
         <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="6">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="6">
-        <v>2</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="G55" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="2">
+        <v>3</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" s="5">
+      <c r="F56" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="9">
         <v>120</v>
       </c>
     </row>
@@ -1898,19 +1895,19 @@
         <v>7</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" s="6">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G57" s="9">
         <v>120</v>
@@ -1921,10 +1918,10 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
@@ -1944,10 +1941,10 @@
         <v>7</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D59" s="6">
         <v>2</v>
@@ -1967,16 +1964,16 @@
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>1</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F60" s="4">
         <v>0.54166666666666663</v>
@@ -1990,16 +1987,16 @@
         <v>7</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C61" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="6">
+        <v>2</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="D61" s="6">
-        <v>2</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="F61" s="8">
         <v>0.45833333333333331</v>
@@ -2013,10 +2010,10 @@
         <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>3</v>
@@ -2036,10 +2033,10 @@
         <v>7</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D63" s="6">
         <v>4</v>
@@ -2048,7 +2045,7 @@
         <v>29</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G63" s="9">
         <v>120</v>
@@ -2059,7 +2056,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -2068,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F64" s="4">
         <v>0.58333333333333337</v>
@@ -2082,7 +2079,7 @@
         <v>7</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>9</v>
@@ -2091,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F65" s="8">
         <v>0.33333333333333331</v>
@@ -2105,7 +2102,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -2114,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F66" s="4">
         <v>0.5</v>
@@ -2128,7 +2125,7 @@
         <v>7</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>9</v>
@@ -2151,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -2174,16 +2171,16 @@
         <v>7</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D69" s="6">
         <v>1</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F69" s="8">
         <v>0.33333333333333331</v>
@@ -2197,10 +2194,10 @@
         <v>7</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D70" s="2">
         <v>2</v>
@@ -2220,7 +2217,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>16</v>
@@ -2229,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F71" s="8">
         <v>0.33333333333333331</v>
@@ -2243,7 +2240,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
@@ -2266,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>16</v>
@@ -2289,7 +2286,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>18</v>
@@ -2312,7 +2309,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>18</v>
@@ -2335,7 +2332,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>20</v>
@@ -2358,7 +2355,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>20</v>
@@ -2367,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F77" s="8">
         <v>0.41666666666666669</v>
@@ -2381,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>20</v>
@@ -2390,7 +2387,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F78" s="4">
         <v>0.41666666666666669</v>
@@ -2404,7 +2401,7 @@
         <v>7</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>20</v>
@@ -2427,7 +2424,7 @@
         <v>7</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>20</v>
@@ -2450,7 +2447,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>20</v>
@@ -2459,7 +2456,7 @@
         <v>6</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F81" s="8">
         <v>0.58333333333333337</v>
@@ -2473,7 +2470,7 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>20</v>
@@ -2496,10 +2493,10 @@
         <v>7</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
@@ -2519,10 +2516,10 @@
         <v>7</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
@@ -2542,16 +2539,16 @@
         <v>7</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D85" s="6">
-        <v>1</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F85" s="8">
         <v>0.33333333333333331</v>
@@ -2561,48 +2558,48 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="A86" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="6">
+        <v>2</v>
+      </c>
+      <c r="E86" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D86" s="2">
-        <v>2</v>
-      </c>
-      <c r="E86" s="3" t="s">
+      <c r="F86" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G86" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" s="2">
+        <v>3</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F87" s="4">
         <v>0.5</v>
       </c>
-      <c r="G86" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D87" s="6">
-        <v>1</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F87" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G87" s="9">
+      <c r="G87" s="5">
         <v>120</v>
       </c>
     </row>
@@ -2611,13 +2608,13 @@
         <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="D88" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>14</v>
@@ -2634,10 +2631,10 @@
         <v>7</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D89" s="6">
         <v>1</v>
@@ -2657,10 +2654,10 @@
         <v>7</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>2</v>
@@ -2680,10 +2677,10 @@
         <v>7</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D91" s="6">
         <v>1</v>
@@ -2703,16 +2700,16 @@
         <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D92" s="2">
-        <v>2</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="F92" s="4">
         <v>0.375</v>
@@ -2726,10 +2723,10 @@
         <v>7</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D93" s="6">
         <v>3</v>
@@ -2749,10 +2746,10 @@
         <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>4</v>
@@ -2772,7 +2769,7 @@
         <v>7</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>9</v>
@@ -2781,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F95" s="8">
         <v>0.5</v>
@@ -2795,7 +2792,7 @@
         <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2804,7 +2801,7 @@
         <v>2</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F96" s="4">
         <v>0.41666666666666669</v>
@@ -2818,7 +2815,7 @@
         <v>7</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>9</v>
@@ -2841,7 +2838,7 @@
         <v>7</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2864,7 +2861,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>9</v>
@@ -2887,10 +2884,10 @@
         <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D100" s="2">
         <v>1</v>
@@ -2910,10 +2907,10 @@
         <v>7</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D101" s="6">
         <v>2</v>
@@ -2933,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>16</v>
@@ -2942,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F102" s="4">
         <v>0.58333333333333337</v>
@@ -2956,7 +2953,7 @@
         <v>7</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>16</v>
@@ -2965,7 +2962,7 @@
         <v>2</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F103" s="8">
         <v>0.5</v>
@@ -2979,7 +2976,7 @@
         <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
@@ -3002,7 +2999,7 @@
         <v>7</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>18</v>
@@ -3025,7 +3022,7 @@
         <v>7</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>18</v>
@@ -3048,7 +3045,7 @@
         <v>7</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>20</v>
@@ -3071,7 +3068,7 @@
         <v>7</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>20</v>
@@ -3094,7 +3091,7 @@
         <v>7</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>20</v>
@@ -3117,7 +3114,7 @@
         <v>7</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>20</v>
@@ -3126,7 +3123,7 @@
         <v>4</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F110" s="4">
         <v>0.58333333333333337</v>
@@ -3140,7 +3137,7 @@
         <v>7</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>20</v>
@@ -3149,7 +3146,7 @@
         <v>5</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F111" s="8">
         <v>0.5</v>
@@ -3163,7 +3160,7 @@
         <v>7</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>20</v>
@@ -3172,7 +3169,7 @@
         <v>6</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F112" s="4">
         <v>0.5</v>
@@ -3186,7 +3183,7 @@
         <v>7</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>20</v>
@@ -3209,10 +3206,10 @@
         <v>7</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D114" s="2">
         <v>1</v>
@@ -3232,10 +3229,10 @@
         <v>7</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D115" s="6">
         <v>2</v>
@@ -3255,12 +3252,12 @@
         <v>7</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D116" s="2">
+        <v>46</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116" s="6">
         <v>1</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -3274,48 +3271,48 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>48</v>
+      <c r="A117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D117" s="6">
         <v>2</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G117" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D118" s="2">
+        <v>3</v>
+      </c>
+      <c r="E118" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F117" s="8">
+      <c r="F118" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G117" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D118" s="2">
-        <v>1</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F118" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G118" s="5">
+      <c r="G118" s="9">
         <v>120</v>
       </c>
     </row>
@@ -3324,13 +3321,13 @@
         <v>7</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D119" s="6">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="D119" s="2">
+        <v>4</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>27</v>
@@ -3347,10 +3344,10 @@
         <v>7</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>1</v>
@@ -3370,16 +3367,16 @@
         <v>7</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D121" s="6">
         <v>2</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F121" s="8">
         <v>0.58333333333333337</v>
@@ -3393,16 +3390,16 @@
         <v>7</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2">
         <v>1</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F122" s="4">
         <v>0.33333333333333331</v>
@@ -3416,16 +3413,16 @@
         <v>7</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C123" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="6">
+        <v>2</v>
+      </c>
+      <c r="E123" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="D123" s="6">
-        <v>2</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="F123" s="8">
         <v>0.41666666666666669</v>
@@ -3439,10 +3436,10 @@
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2">
         <v>3</v>
@@ -3462,10 +3459,10 @@
         <v>7</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D125" s="6">
         <v>4</v>
@@ -3485,7 +3482,7 @@
         <v>7</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3494,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F126" s="4">
         <v>0.58333333333333337</v>
@@ -3508,7 +3505,7 @@
         <v>7</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>9</v>
@@ -3517,7 +3514,7 @@
         <v>2</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F127" s="8">
         <v>0.33333333333333331</v>
@@ -3531,7 +3528,7 @@
         <v>7</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3554,7 +3551,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>9</v>
@@ -3577,7 +3574,7 @@
         <v>7</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3600,16 +3597,16 @@
         <v>7</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D131" s="6">
         <v>1</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F131" s="8">
         <v>0.5</v>
@@ -3623,10 +3620,10 @@
         <v>7</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D132" s="2">
         <v>2</v>
@@ -3646,7 +3643,7 @@
         <v>7</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>16</v>
@@ -3655,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F133" s="8">
         <v>0.5</v>
@@ -3669,7 +3666,7 @@
         <v>7</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>16</v>
@@ -3692,7 +3689,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>16</v>
@@ -3715,7 +3712,7 @@
         <v>7</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>18</v>
@@ -3738,7 +3735,7 @@
         <v>7</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>18</v>
@@ -3761,7 +3758,7 @@
         <v>7</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>20</v>
@@ -3784,7 +3781,7 @@
         <v>7</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>20</v>
@@ -3793,7 +3790,7 @@
         <v>2</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F139" s="8">
         <v>0.58333333333333337</v>
@@ -3807,7 +3804,7 @@
         <v>7</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>20</v>
@@ -3816,7 +3813,7 @@
         <v>3</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F140" s="4">
         <v>0.5</v>
@@ -3830,7 +3827,7 @@
         <v>7</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>20</v>
@@ -3853,7 +3850,7 @@
         <v>7</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>20</v>
@@ -3862,7 +3859,7 @@
         <v>5</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F142" s="4">
         <v>0.58333333333333337</v>
@@ -3876,7 +3873,7 @@
         <v>7</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>20</v>
@@ -3885,7 +3882,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F143" s="8">
         <v>0.58333333333333337</v>
@@ -3899,7 +3896,7 @@
         <v>7</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>20</v>
@@ -3922,10 +3919,10 @@
         <v>7</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D145" s="6">
         <v>1</v>
@@ -3945,10 +3942,10 @@
         <v>7</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D146" s="2">
         <v>2</v>
@@ -3968,13 +3965,13 @@
         <v>7</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D147" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>26</v>
@@ -3987,48 +3984,48 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D148" s="2">
-        <v>2</v>
-      </c>
-      <c r="E148" s="3" t="s">
+      <c r="A148" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D148" s="6">
+        <v>1</v>
+      </c>
+      <c r="E148" s="7">
+        <v>45951</v>
+      </c>
+      <c r="F148" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G148" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D149" s="2">
+        <v>4</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F148" s="4">
+      <c r="F149" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G148" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D149" s="6">
-        <v>1</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F149" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G149" s="9">
+      <c r="G149" s="5">
         <v>120</v>
       </c>
     </row>
@@ -4037,13 +4034,13 @@
         <v>7</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="D150" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>27</v>
@@ -4060,16 +4057,16 @@
         <v>7</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D151" s="6">
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F151" s="8">
         <v>0.5</v>
@@ -4083,16 +4080,16 @@
         <v>7</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D152" s="2">
         <v>2</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F152" s="4">
         <v>0.5</v>
@@ -4106,16 +4103,16 @@
         <v>7</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D153" s="6">
         <v>1</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F153" s="8">
         <v>0.375</v>
@@ -4129,16 +4126,16 @@
         <v>7</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D154" s="2">
+        <v>2</v>
+      </c>
+      <c r="E154" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D154" s="2">
-        <v>2</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="F154" s="4">
         <v>0.33333333333333331</v>
@@ -4152,10 +4149,10 @@
         <v>7</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D155" s="6">
         <v>3</v>
@@ -4175,10 +4172,10 @@
         <v>7</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D156" s="2">
         <v>4</v>
@@ -4198,7 +4195,7 @@
         <v>7</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>9</v>
@@ -4207,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F157" s="8">
         <v>0.33333333333333331</v>
@@ -4221,7 +4218,7 @@
         <v>7</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4230,7 +4227,7 @@
         <v>2</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F158" s="4">
         <v>0.41666666666666669</v>
@@ -4244,7 +4241,7 @@
         <v>7</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>9</v>
@@ -4267,7 +4264,7 @@
         <v>7</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4276,7 +4273,7 @@
         <v>4</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F160" s="4">
         <v>0.5</v>
@@ -4290,7 +4287,7 @@
         <v>7</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>9</v>
@@ -4313,16 +4310,16 @@
         <v>7</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D162" s="2">
         <v>1</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F162" s="4">
         <v>0.41666666666666669</v>
@@ -4336,10 +4333,10 @@
         <v>7</v>
       </c>
       <c r="B163" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C163" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="D163" s="6">
         <v>2</v>
@@ -4359,7 +4356,7 @@
         <v>7</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>16</v>
@@ -4368,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F164" s="4">
         <v>0.41666666666666669</v>
@@ -4382,7 +4379,7 @@
         <v>7</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>16</v>
@@ -4405,7 +4402,7 @@
         <v>7</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>16</v>
@@ -4428,7 +4425,7 @@
         <v>7</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>18</v>
@@ -4451,7 +4448,7 @@
         <v>7</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>18</v>
@@ -4474,7 +4471,7 @@
         <v>7</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>20</v>
@@ -4497,7 +4494,7 @@
         <v>7</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>20</v>
@@ -4506,7 +4503,7 @@
         <v>2</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F170" s="4">
         <v>0.5</v>
@@ -4520,7 +4517,7 @@
         <v>7</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>20</v>
@@ -4529,7 +4526,7 @@
         <v>3</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F171" s="8">
         <v>0.33333333333333331</v>
@@ -4543,7 +4540,7 @@
         <v>7</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>20</v>
@@ -4552,7 +4549,7 @@
         <v>4</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F172" s="4">
         <v>0.41666666666666669</v>
@@ -4566,7 +4563,7 @@
         <v>7</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>20</v>
@@ -4575,7 +4572,7 @@
         <v>5</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F173" s="8">
         <v>0.41666666666666669</v>
@@ -4589,7 +4586,7 @@
         <v>7</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>20</v>
@@ -4598,7 +4595,7 @@
         <v>6</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F174" s="4">
         <v>0.5</v>
@@ -4612,7 +4609,7 @@
         <v>7</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>20</v>
@@ -4635,10 +4632,10 @@
         <v>7</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D176" s="2">
         <v>1</v>
@@ -4658,10 +4655,10 @@
         <v>7</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D177" s="6">
         <v>2</v>
@@ -4681,67 +4678,67 @@
         <v>7</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C178" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D178" s="6">
+        <v>1</v>
+      </c>
+      <c r="E178" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D178" s="2">
-        <v>1</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F178" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G178" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D179" s="6">
+        <v>2</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F179" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G178" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D179" s="6">
-        <v>2</v>
-      </c>
-      <c r="E179" s="7" t="s">
+      <c r="G179" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D180" s="2">
+        <v>3</v>
+      </c>
+      <c r="E180" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F179" s="8">
+      <c r="F180" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G179" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D180" s="2">
-        <v>1</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F180" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G180" s="5">
+      <c r="G180" s="9">
         <v>120</v>
       </c>
     </row>
@@ -4750,13 +4747,13 @@
         <v>7</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D181" s="6">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="D181" s="2">
+        <v>4</v>
       </c>
       <c r="E181" s="7" t="s">
         <v>17</v>
@@ -4773,10 +4770,10 @@
         <v>7</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D182" s="2">
         <v>1</v>
@@ -4796,10 +4793,10 @@
         <v>7</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D183" s="6">
         <v>2</v>
@@ -4819,10 +4816,10 @@
         <v>7</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D184" s="2">
         <v>1</v>
@@ -4842,10 +4839,10 @@
         <v>7</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D185" s="6">
         <v>2</v>
@@ -4865,10 +4862,10 @@
         <v>7</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D186" s="2">
         <v>3</v>
@@ -4888,10 +4885,10 @@
         <v>7</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D187" s="6">
         <v>4</v>
@@ -4910,7 +4907,6 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G187">
     <sortCondition ref="B2:B187"/>
     <sortCondition ref="C2:C187"/>
-    <sortCondition ref="D2:D187"/>
     <sortCondition ref="E2:E187"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
